--- a/ОтчетПроверки_БИК_05_11_2020.xlsx
+++ b/ОтчетПроверки_БИК_05_11_2020.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>Название</x:t>
   </x:si>
@@ -34,76 +34,100 @@
     <x:t>БИК</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">ФИЛИАЛ "ИНВЕСТКАПИТАЛБАНК" АО "СМП БАНК" </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">г Уфа </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ул Достоевского, 100/1 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">30101810480730000875 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>048073875</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ФИЛИАЛ АЙСИБИСИ БАНК (АО) В САНКТ-ПЕТЕРБУРГЕ </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">г Санкт-Петербург </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ул Херсонская, 12,14 лит А </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">30101810440300000824 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>044030824</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">САНКТ-ПЕТЕРБУРГСКИЙ БАНК ИНВЕСТИЦИЙ (АО) </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ул Б. Монетная, 16-30 лит А </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">30101810100000000820 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>044030820</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">АО РНКО "Нарат" </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">г Казань </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ул.Фатыха Амирхана, д.21 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">30103810422029205885 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>049205885</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">АО "СОЛИД БАНК" </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">г Владивосток </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ул Адмирала Фокина, 25 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">30101810205070000595 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>040507595</x:t>
+    <x:t xml:space="preserve">КУ ОАО АКБ "УНИВЕРСАЛЬНЫЙ КРЕДИТ" - ГК "АСВ" </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">г Москва </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ул Высоцкого, 4 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">30101810345250000651 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>044525651</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">КУ "НАЦКОРПБАНК" (АО) - ГК "АСВ" </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">30101810945250000653 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>044525653</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">КУ ОАО АКБ "РУССКИЙ ЗЕМЕЛЬНЫЙ БАНК" -ГК "АСВ" </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">30101810545250000684 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>044525684</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">КУ ООО КБ "ИНСТРОЙБАНК" ГК "АСВ" </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">30101810445250000690 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>044525690</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">КУ ОАО АКБ "ЛЕСБАНК"-ГК "АСВ" </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">30101810645250000694 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>044525694</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">КУ ПАО "ТАЙМ БАНК" - ГК "АСВ" </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">30101810445250000713 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>044525713</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">КУ ООО КБ "ПЕРВЫЙ ДЕПОЗИТНЫЙ" - ГК "АСВ" </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">30101810845250000737 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>044525737</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">КУ АКБ "МФТ-БАНК" (ОАО) - ГК "АСВ" </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">30101810745250000743 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>044525743</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">КУ АО "СМАРТБАНК" - ГК "АСВ" </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">30101810645250000746 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>044525746</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">КУ ЗАО МЕЖДУНАРОДНЫЙ ПРОМЫШЛЕННЫЙ БАНК-ГК АСВ </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">30101810000000000748 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>044525748</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -454,7 +478,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F6"/>
+  <x:dimension ref="A1:F11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -502,67 +526,152 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F7" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="B8" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
+      <x:c r="F8" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="0" t="s">
         <x:v>29</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F10" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="F11" s="0" t="s">
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
